--- a/ValueSet-imaging-procedures-dicom.xlsx
+++ b/ValueSet-imaging-procedures-dicom.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-imaging-procedures-dicom.xlsx
+++ b/ValueSet-imaging-procedures-dicom.xlsx
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Imaging procedures in the context of pediatrics and Covid-19</t>
+    <t>Imaging procedures in the context of pediatrics and COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
